--- a/Leitor/notas/notas.xlsx
+++ b/Leitor/notas/notas.xlsx
@@ -413,13 +413,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="4" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="44" customWidth="1" min="7" max="7"/>
+    <col width="106" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="4" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -438,7 +450,7 @@
         </is>
       </c>
       <c r="D1" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
@@ -447,17 +459,27 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>[4, 6, 10, 18, 23, 25, 26, 28, 31, 33, 38, 41, 42, 44, 45, 46, 49, 56, 58]</t>
+          <t>[1, 4, 5, 8, 10, 11, 12, 16, 17, 18, 19, 21, 22, 23, 24, 25, 26, 28]</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -478,7 +500,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,17 +509,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 7, 10, 12, 18, 28, 38, 41, 43, 46, 49, 50, 53, 56, 58]</t>
+          <t>[2, 3, 4, 7, 10, 12, 18, 28]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -518,7 +550,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -527,17 +559,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[2, 4, 8, 10, 12, 16, 19, 20, 23, 24, 28, 33, 35, 37, 38, 42, 45, 49, 56, 58]</t>
+          <t>[2, 4, 8, 10, 12, 16, 19, 20, 23, 24, 28]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -558,7 +600,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -567,17 +609,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[1, 4, 6, 10, 12, 13, 20, 22, 24, 25, 28, 31, 37, 38, 42, 44, 49, 50, 54, 58, 59]</t>
+          <t>[1, 4, 6, 10, 12, 13, 20, 22, 24, 25, 28]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -598,7 +650,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -607,17 +659,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>16%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[6, 10, 13, 16, 17, 18, 21, 23, 24, 27, 28, 35, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 48, 49, 50, 56, 58]</t>
+          <t>[1, 2, 4, 6, 7, 8, 10, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 29, 30]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -638,7 +700,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -647,17 +709,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[13, 16, 17, 18, 20, 24, 28, 33, 38, 39, 40, 41, 46, 49, 56, 59]</t>
+          <t>[1, 2, 4, 6, 7, 8, 10, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 27, 29, 30]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -678,7 +750,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -687,17 +759,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[2, 3, 4, 6, 16, 28, 31, 33, 37, 38, 40, 41, 43, 44, 45, 46, 49, 57, 58]</t>
+          <t>[2, 3, 4, 6, 16, 28]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -718,7 +800,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -727,17 +809,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 10, 13, 16, 17, 18, 24, 25, 28, 37, 38, 41, 46, 48, 49, 51, 54, 56, 58]</t>
+          <t>[1, 2, 3, 10, 13, 16, 17, 18, 24, 25, 28]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -758,7 +850,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -767,17 +859,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[1, 12, 16, 17, 20, 21, 27, 28, 35, 38, 42, 43, 46, 49, 51, 52, 56, 57, 58]</t>
+          <t>[1, 12, 16, 17, 20, 21, 26, 28]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -798,7 +900,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -812,12 +914,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[2, 4, 5, 8, 10, 12, 13, 17, 18, 20, 21, 24, 28, 35, 36, 38, 40, 41, 45, 46, 48, 49, 50, 56, 58, 59]</t>
+          <t>[2, 4, 5, 8, 10, 12, 13, 17, 18, 20, 21, 24, 28]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -838,7 +950,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -847,17 +959,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[2, 4, 11, 13, 18, 20, 27, 32, 33, 38, 46, 49, 54, 56, 58, 60]</t>
+          <t>[2, 4, 11, 13, 18, 20, 27]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -878,7 +1000,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -887,17 +1009,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[5, 6, 10, 16, 18, 24, 25, 28, 38, 41, 42, 43, 45, 49, 54, 58, 60]</t>
+          <t>[5, 6, 10, 16, 18, 24, 25, 28]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -918,7 +1050,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -927,17 +1059,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[1, 7, 9, 12, 18, 21, 22, 26, 27, 28, 29, 33, 37, 39, 40, 42, 46, 49, 56, 58]</t>
+          <t>[1, 2, 4, 6, 7, 8, 9, 10, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 25, 26, 27, 28, 29, 30]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -958,7 +1100,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -967,17 +1109,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[3, 4, 6, 13, 14, 17, 18, 19, 21, 23, 25, 26, 30, 31, 32, 37, 38, 45, 46, 49, 50, 53, 55, 56, 58, 59]</t>
+          <t>[1, 2, 4, 5, 8, 9, 10, 11, 13, 16, 17, 19, 20, 21, 22, 23, 24, 25, 27, 28, 29, 30]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -998,7 +1150,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1007,17 +1159,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[10, 14, 16, 17, 18, 21, 24, 26, 27, 30, 31, 33, 37, 38, 39, 40, 43, 44, 46, 49, 50, 55, 56, 58]</t>
+          <t>[1, 2, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1200,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1047,17 +1209,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[3, 10, 13, 25, 28, 37, 38, 42, 43, 45, 49, 54]</t>
+          <t>[1, 2, 3, 4, 6, 8, 10, 11, 15, 18, 19, 21, 22, 23, 24, 25, 27, 28]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1250,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1087,17 +1259,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[1, 2, 6, 13, 18, 19, 28, 38, 41, 43, 44, 45, 46, 49, 54, 56, 59]</t>
+          <t>[1, 2, 6, 13, 18, 19, 28]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1300,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1127,17 +1309,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[1, 4, 5, 8, 14, 16, 17, 18, 19, 23, 24, 25, 28, 33, 38, 40, 41, 45, 46, 49, 50, 54, 56, 59, 60]</t>
+          <t>[1, 4, 5, 8, 14, 16, 17, 18, 19, 23, 24, 25, 28]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1350,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1167,17 +1359,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Questões incorretas:</t>
+          <t>Questões incorretas (incluindo em branco):</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[2, 6, 13, 18, 19, 20, 24, 28, 31, 33, 38, 40, 41, 44, 46, 49, 56, 58, 59]</t>
+          <t>[2, 6, 13, 18, 19, 20, 24, 28]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Em brancos: </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
